--- a/PH_forecasts.xlsx
+++ b/PH_forecasts.xlsx
@@ -653,7 +653,7 @@
         <v>3.04</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.53692307692308</v>
+        <v>8.48888888888889</v>
       </c>
     </row>
     <row r="3">
@@ -754,7 +754,7 @@
         <v>1.46</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.56615384615385</v>
+        <v>8.55333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -855,7 +855,7 @@
         <v>1.46</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.50461538461538</v>
+        <v>8.48888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +956,7 @@
         <v>3.02</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.53692307692308</v>
+        <v>8.51555555555556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>3.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.62153846153846</v>
+        <v>8.61555555555555</v>
       </c>
     </row>
     <row r="7">
@@ -1158,7 +1158,7 @@
         <v>1.42</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.52615384615385</v>
+        <v>8.52222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1259,7 @@
         <v>1.46</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.53846153846154</v>
+        <v>8.52222222222222</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1360,7 @@
         <v>1.44</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.62615384615385</v>
+        <v>8.66222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -1461,7 +1461,7 @@
         <v>1.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.44461538461539</v>
+        <v>8.41333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         <v>1.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.66</v>
+        <v>8.59333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1663,7 +1663,7 @@
         <v>1.44</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.57076923076923</v>
+        <v>8.60888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -1764,7 +1764,7 @@
         <v>3.16</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.71538461538461</v>
+        <v>8.70666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1865,7 +1865,7 @@
         <v>1.46</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.73846153846154</v>
+        <v>8.78666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1966,7 +1966,7 @@
         <v>1.46</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.66461538461538</v>
+        <v>8.64444444444444</v>
       </c>
     </row>
     <row r="16">
@@ -2067,7 +2067,7 @@
         <v>1.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.58</v>
+        <v>8.52888888888889</v>
       </c>
     </row>
     <row r="17">
@@ -2168,7 +2168,7 @@
         <v>1.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.67692307692308</v>
+        <v>8.67111111111111</v>
       </c>
     </row>
     <row r="18">
@@ -2269,7 +2269,7 @@
         <v>1.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.66153846153846</v>
+        <v>8.74444444444444</v>
       </c>
     </row>
     <row r="19">
@@ -2370,7 +2370,7 @@
         <v>1.52</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.58153846153846</v>
+        <v>8.59111111111111</v>
       </c>
     </row>
     <row r="20">
@@ -2471,7 +2471,7 @@
         <v>3.28</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.65076923076923</v>
+        <v>8.72444444444444</v>
       </c>
     </row>
     <row r="21">
@@ -2572,7 +2572,7 @@
         <v>3.26</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.67692307692308</v>
+        <v>8.62666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -2673,7 +2673,7 @@
         <v>3.28</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.61692307692308</v>
+        <v>8.60222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -2774,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.52153846153846</v>
+        <v>8.59111111111111</v>
       </c>
     </row>
     <row r="24">
@@ -2875,7 +2875,7 @@
         <v>3.08</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.49230769230769</v>
+        <v>8.52444444444444</v>
       </c>
     </row>
     <row r="25">
@@ -2976,7 +2976,7 @@
         <v>3.06</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.43384615384615</v>
+        <v>8.46888888888889</v>
       </c>
     </row>
     <row r="26">
@@ -3077,7 +3077,7 @@
         <v>3.32</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.66923076923077</v>
+        <v>8.62888888888889</v>
       </c>
     </row>
     <row r="27">
@@ -3178,7 +3178,7 @@
         <v>3.34</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.75076923076923</v>
+        <v>8.79333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -3279,7 +3279,7 @@
         <v>1.34</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.58153846153846</v>
+        <v>8.49333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -3380,7 +3380,7 @@
         <v>1.38</v>
       </c>
       <c r="AG29" t="n">
-        <v>8.45230769230769</v>
+        <v>8.44222222222222</v>
       </c>
     </row>
     <row r="30">
@@ -3481,7 +3481,7 @@
         <v>1.42</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.72307692307692</v>
+        <v>8.76222222222222</v>
       </c>
     </row>
     <row r="31">
@@ -3582,7 +3582,7 @@
         <v>3.28</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.65692307692308</v>
+        <v>8.65333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -3683,7 +3683,7 @@
         <v>3.3</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.72</v>
+        <v>8.72888888888889</v>
       </c>
     </row>
     <row r="33">
@@ -3784,7 +3784,7 @@
         <v>1.48</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.67384615384615</v>
+        <v>8.71555555555556</v>
       </c>
     </row>
     <row r="34">
@@ -3885,7 +3885,7 @@
         <v>3.1</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.70461538461538</v>
+        <v>8.70666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -3986,7 +3986,7 @@
         <v>3.06</v>
       </c>
       <c r="AG35" t="n">
-        <v>8.66615384615385</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="36">
@@ -4087,7 +4087,7 @@
         <v>1.42</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.64307692307692</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="37">
@@ -4188,7 +4188,7 @@
         <v>1.48</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.70461538461539</v>
+        <v>8.68888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -4289,7 +4289,7 @@
         <v>3.28</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.66153846153846</v>
+        <v>8.65555555555556</v>
       </c>
     </row>
     <row r="39">
@@ -4390,7 +4390,7 @@
         <v>1.32</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.48153846153846</v>
+        <v>8.49111111111111</v>
       </c>
     </row>
     <row r="40">
@@ -4491,7 +4491,7 @@
         <v>1.48</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.64615384615385</v>
+        <v>8.56888888888889</v>
       </c>
     </row>
     <row r="41">
@@ -4592,7 +4592,7 @@
         <v>1.38</v>
       </c>
       <c r="AG41" t="n">
-        <v>8.52461538461539</v>
+        <v>8.53777777777778</v>
       </c>
     </row>
     <row r="42">
@@ -4693,7 +4693,7 @@
         <v>1.42</v>
       </c>
       <c r="AG42" t="n">
-        <v>8.76307692307692</v>
+        <v>8.80222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -4794,7 +4794,7 @@
         <v>1.42</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.66153846153846</v>
+        <v>8.59555555555556</v>
       </c>
     </row>
     <row r="44">
@@ -4895,7 +4895,7 @@
         <v>1.44</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.67230769230769</v>
+        <v>8.72222222222222</v>
       </c>
     </row>
     <row r="45">
@@ -4996,7 +4996,7 @@
         <v>3.26</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.68153846153846</v>
+        <v>8.70888888888889</v>
       </c>
     </row>
     <row r="46">
@@ -5097,7 +5097,7 @@
         <v>1.44</v>
       </c>
       <c r="AG46" t="n">
-        <v>8.74461538461538</v>
+        <v>8.75333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -5198,7 +5198,7 @@
         <v>1.54</v>
       </c>
       <c r="AG47" t="n">
-        <v>8.74923076923077</v>
+        <v>8.74666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -5299,7 +5299,7 @@
         <v>1.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>8.56153846153846</v>
+        <v>8.56888888888889</v>
       </c>
     </row>
     <row r="49">
@@ -5400,7 +5400,7 @@
         <v>1.44</v>
       </c>
       <c r="AG49" t="n">
-        <v>8.55846153846154</v>
+        <v>8.54888888888889</v>
       </c>
     </row>
     <row r="50">
@@ -5501,7 +5501,7 @@
         <v>1.46</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.48923076923077</v>
+        <v>8.55333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -5602,7 +5602,7 @@
         <v>1.44</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.59230769230769</v>
+        <v>8.58666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -5703,7 +5703,7 @@
         <v>1.44</v>
       </c>
       <c r="AG52" t="n">
-        <v>8.49692307692308</v>
+        <v>8.51111111111111</v>
       </c>
     </row>
     <row r="53">
@@ -5804,7 +5804,7 @@
         <v>1.32</v>
       </c>
       <c r="AG53" t="n">
-        <v>8.65846153846154</v>
+        <v>8.67111111111111</v>
       </c>
     </row>
     <row r="54">
@@ -5905,7 +5905,7 @@
         <v>1.42</v>
       </c>
       <c r="AG54" t="n">
-        <v>8.41538461538461</v>
+        <v>8.54666666666667</v>
       </c>
     </row>
     <row r="55">
@@ -6006,7 +6006,7 @@
         <v>3.32</v>
       </c>
       <c r="AG55" t="n">
-        <v>8.64923076923077</v>
+        <v>8.64444444444444</v>
       </c>
     </row>
     <row r="56">
@@ -6107,7 +6107,7 @@
         <v>3.34</v>
       </c>
       <c r="AG56" t="n">
-        <v>8.61538461538462</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="57">
@@ -6208,7 +6208,7 @@
         <v>3.26</v>
       </c>
       <c r="AG57" t="n">
-        <v>8.59846153846154</v>
+        <v>8.52888888888889</v>
       </c>
     </row>
     <row r="58">
@@ -6309,7 +6309,7 @@
         <v>3.14</v>
       </c>
       <c r="AG58" t="n">
-        <v>8.61846153846154</v>
+        <v>8.55555555555556</v>
       </c>
     </row>
     <row r="59">
@@ -6410,7 +6410,7 @@
         <v>1.36</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.69538461538462</v>
+        <v>8.61111111111111</v>
       </c>
     </row>
     <row r="60">
@@ -6511,7 +6511,7 @@
         <v>3.24</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.69692307692308</v>
+        <v>8.70222222222222</v>
       </c>
     </row>
     <row r="61">
@@ -6612,7 +6612,7 @@
         <v>3.3</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.66</v>
+        <v>8.71333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -6713,7 +6713,7 @@
         <v>1.38</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.75230769230769</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="63">
@@ -6814,7 +6814,7 @@
         <v>1.26</v>
       </c>
       <c r="AG63" t="n">
-        <v>8.72769230769231</v>
+        <v>8.68888888888889</v>
       </c>
     </row>
     <row r="64">
@@ -6915,7 +6915,7 @@
         <v>1.26</v>
       </c>
       <c r="AG64" t="n">
-        <v>8.65230769230769</v>
+        <v>8.68888888888889</v>
       </c>
     </row>
     <row r="65">
@@ -7016,7 +7016,7 @@
         <v>1.32</v>
       </c>
       <c r="AG65" t="n">
-        <v>8.77538461538461</v>
+        <v>8.77111111111111</v>
       </c>
     </row>
     <row r="66">
@@ -7117,7 +7117,7 @@
         <v>3.18</v>
       </c>
       <c r="AG66" t="n">
-        <v>8.66</v>
+        <v>8.68888888888889</v>
       </c>
     </row>
     <row r="67">
@@ -7218,7 +7218,7 @@
         <v>1.44</v>
       </c>
       <c r="AG67" t="n">
-        <v>8.69538461538462</v>
+        <v>8.70888888888889</v>
       </c>
     </row>
     <row r="68">
@@ -7319,7 +7319,7 @@
         <v>2.86</v>
       </c>
       <c r="AG68" t="n">
-        <v>8.60461538461538</v>
+        <v>8.60666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -7420,7 +7420,7 @@
         <v>1.4</v>
       </c>
       <c r="AG69" t="n">
-        <v>8.77076923076923</v>
+        <v>8.74888888888889</v>
       </c>
     </row>
     <row r="70">
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="AG70" t="n">
-        <v>8.55692307692308</v>
+        <v>8.58222222222222</v>
       </c>
     </row>
     <row r="71">
@@ -7622,7 +7622,7 @@
         <v>1.48</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.68</v>
+        <v>8.62666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -7723,7 +7723,7 @@
         <v>1.44</v>
       </c>
       <c r="AG72" t="n">
-        <v>8.67538461538461</v>
+        <v>8.64888888888889</v>
       </c>
     </row>
     <row r="73">
@@ -7824,7 +7824,7 @@
         <v>3.04</v>
       </c>
       <c r="AG73" t="n">
-        <v>8.68461538461538</v>
+        <v>8.69333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -7925,7 +7925,7 @@
         <v>3.1</v>
       </c>
       <c r="AG74" t="n">
-        <v>8.67538461538462</v>
+        <v>8.63333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -8026,7 +8026,7 @@
         <v>1.44</v>
       </c>
       <c r="AG75" t="n">
-        <v>8.67230769230769</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="76">
@@ -8127,7 +8127,7 @@
         <v>1.36</v>
       </c>
       <c r="AG76" t="n">
-        <v>8.69384615384615</v>
+        <v>8.70666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -8228,7 +8228,7 @@
         <v>1.42</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.76153846153846</v>
+        <v>8.72444444444445</v>
       </c>
     </row>
     <row r="78">
@@ -8329,7 +8329,7 @@
         <v>1.36</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.73846153846154</v>
+        <v>8.74444444444445</v>
       </c>
     </row>
     <row r="79">
@@ -8430,7 +8430,7 @@
         <v>1.38</v>
       </c>
       <c r="AG79" t="n">
-        <v>8.61692307692308</v>
+        <v>8.65333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -8531,7 +8531,7 @@
         <v>1.44</v>
       </c>
       <c r="AG80" t="n">
-        <v>8.60153846153846</v>
+        <v>8.59555555555556</v>
       </c>
     </row>
     <row r="81">
@@ -8632,7 +8632,7 @@
         <v>1.38</v>
       </c>
       <c r="AG81" t="n">
-        <v>8.66153846153846</v>
+        <v>8.64444444444445</v>
       </c>
     </row>
     <row r="82">
@@ -8733,7 +8733,7 @@
         <v>1.34</v>
       </c>
       <c r="AG82" t="n">
-        <v>8.67692307692308</v>
+        <v>8.69333333333333</v>
       </c>
     </row>
     <row r="83">
@@ -8834,7 +8834,7 @@
         <v>1.34</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.68153846153846</v>
+        <v>8.70444444444444</v>
       </c>
     </row>
     <row r="84">
@@ -8935,7 +8935,7 @@
         <v>3.08</v>
       </c>
       <c r="AG84" t="n">
-        <v>8.67538461538461</v>
+        <v>8.68888888888889</v>
       </c>
     </row>
     <row r="85">
@@ -9036,7 +9036,7 @@
         <v>3.04</v>
       </c>
       <c r="AG85" t="n">
-        <v>8.66153846153846</v>
+        <v>8.67111111111111</v>
       </c>
     </row>
     <row r="86">
@@ -9137,7 +9137,7 @@
         <v>1.38</v>
       </c>
       <c r="AG86" t="n">
-        <v>8.70461538461538</v>
+        <v>8.73111111111111</v>
       </c>
     </row>
     <row r="87">
@@ -9238,7 +9238,7 @@
         <v>1.4</v>
       </c>
       <c r="AG87" t="n">
-        <v>8.70153846153846</v>
+        <v>8.72666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -9339,7 +9339,7 @@
         <v>1.36</v>
       </c>
       <c r="AG88" t="n">
-        <v>8.70769230769231</v>
+        <v>8.66888888888889</v>
       </c>
     </row>
     <row r="89">
@@ -9440,7 +9440,7 @@
         <v>1.44</v>
       </c>
       <c r="AG89" t="n">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="90">
@@ -9541,7 +9541,7 @@
         <v>1.38</v>
       </c>
       <c r="AG90" t="n">
-        <v>8.69230769230769</v>
+        <v>8.70222222222222</v>
       </c>
     </row>
     <row r="91">
@@ -9642,7 +9642,7 @@
         <v>1.38</v>
       </c>
       <c r="AG91" t="n">
-        <v>8.70923076923077</v>
+        <v>8.68222222222222</v>
       </c>
     </row>
     <row r="92">
@@ -9743,7 +9743,7 @@
         <v>1.36</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.57384615384616</v>
+        <v>8.55111111111111</v>
       </c>
     </row>
     <row r="93">
@@ -9844,7 +9844,7 @@
         <v>1.32</v>
       </c>
       <c r="AG93" t="n">
-        <v>8.57692307692308</v>
+        <v>8.53555555555556</v>
       </c>
     </row>
     <row r="94">
@@ -9945,7 +9945,7 @@
         <v>2.96</v>
       </c>
       <c r="AG94" t="n">
-        <v>8.52769230769231</v>
+        <v>8.48666666666667</v>
       </c>
     </row>
     <row r="95">
@@ -10046,7 +10046,7 @@
         <v>3.04</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.52615384615385</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="96">
@@ -10147,7 +10147,7 @@
         <v>3.06</v>
       </c>
       <c r="AG96" t="n">
-        <v>8.58461538461538</v>
+        <v>8.54666666666667</v>
       </c>
     </row>
     <row r="97">
@@ -10248,7 +10248,7 @@
         <v>2.98</v>
       </c>
       <c r="AG97" t="n">
-        <v>8.57692307692308</v>
+        <v>8.53777777777778</v>
       </c>
     </row>
     <row r="98">
@@ -10349,7 +10349,7 @@
         <v>2.96</v>
       </c>
       <c r="AG98" t="n">
-        <v>8.47692307692308</v>
+        <v>8.49111111111111</v>
       </c>
     </row>
     <row r="99">
@@ -10450,7 +10450,7 @@
         <v>1.34</v>
       </c>
       <c r="AG99" t="n">
-        <v>8.45076923076923</v>
+        <v>8.43777777777778</v>
       </c>
     </row>
     <row r="100">
@@ -10551,7 +10551,7 @@
         <v>1.32</v>
       </c>
       <c r="AG100" t="n">
-        <v>8.57384615384615</v>
+        <v>8.57333333333333</v>
       </c>
     </row>
     <row r="101">
@@ -10652,7 +10652,7 @@
         <v>1.34</v>
       </c>
       <c r="AG101" t="n">
-        <v>8.44461538461539</v>
+        <v>8.42666666666667</v>
       </c>
     </row>
     <row r="102">
@@ -10753,7 +10753,7 @@
         <v>3.06</v>
       </c>
       <c r="AG102" t="n">
-        <v>8.43230769230769</v>
+        <v>8.40444444444444</v>
       </c>
     </row>
     <row r="103">
@@ -10854,7 +10854,7 @@
         <v>3.1</v>
       </c>
       <c r="AG103" t="n">
-        <v>8.55846153846154</v>
+        <v>8.56888888888889</v>
       </c>
     </row>
     <row r="104">
@@ -10955,7 +10955,7 @@
         <v>3.08</v>
       </c>
       <c r="AG104" t="n">
-        <v>8.52</v>
+        <v>8.51777777777778</v>
       </c>
     </row>
     <row r="105">
@@ -11056,7 +11056,7 @@
         <v>1.38</v>
       </c>
       <c r="AG105" t="n">
-        <v>8.57384615384615</v>
+        <v>8.57111111111111</v>
       </c>
     </row>
     <row r="106">
@@ -11157,7 +11157,7 @@
         <v>1.36</v>
       </c>
       <c r="AG106" t="n">
-        <v>8.54615384615385</v>
+        <v>8.55777777777778</v>
       </c>
     </row>
     <row r="107">
@@ -11258,7 +11258,7 @@
         <v>1.3</v>
       </c>
       <c r="AG107" t="n">
-        <v>8.54615384615385</v>
+        <v>8.55555555555556</v>
       </c>
     </row>
     <row r="108">
@@ -11359,7 +11359,7 @@
         <v>1.42</v>
       </c>
       <c r="AG108" t="n">
-        <v>8.55846153846154</v>
+        <v>8.56444444444444</v>
       </c>
     </row>
     <row r="109">
@@ -11460,7 +11460,7 @@
         <v>2.98</v>
       </c>
       <c r="AG109" t="n">
-        <v>8.48923076923077</v>
+        <v>8.46444444444445</v>
       </c>
     </row>
     <row r="110">
@@ -11561,7 +11561,7 @@
         <v>1.32</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.66153846153846</v>
+        <v>8.68222222222222</v>
       </c>
     </row>
     <row r="111">
@@ -11662,7 +11662,7 @@
         <v>1.68</v>
       </c>
       <c r="AG111" t="n">
-        <v>8.50769230769231</v>
+        <v>8.53111111111111</v>
       </c>
     </row>
     <row r="112">
@@ -11763,7 +11763,7 @@
         <v>1.66</v>
       </c>
       <c r="AG112" t="n">
-        <v>8.60153846153846</v>
+        <v>8.60444444444444</v>
       </c>
     </row>
     <row r="113">
@@ -11864,7 +11864,7 @@
         <v>1.72</v>
       </c>
       <c r="AG113" t="n">
-        <v>8.57538461538461</v>
+        <v>8.58666666666667</v>
       </c>
     </row>
     <row r="114">
@@ -11965,7 +11965,7 @@
         <v>1.36</v>
       </c>
       <c r="AG114" t="n">
-        <v>8.53230769230769</v>
+        <v>8.50888888888889</v>
       </c>
     </row>
     <row r="115">
@@ -12066,7 +12066,7 @@
         <v>1.32</v>
       </c>
       <c r="AG115" t="n">
-        <v>8.54923076923077</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="116">
@@ -12167,7 +12167,7 @@
         <v>1.36</v>
       </c>
       <c r="AG116" t="n">
-        <v>8.60615384615384</v>
+        <v>8.61555555555555</v>
       </c>
     </row>
     <row r="117">
@@ -12268,7 +12268,7 @@
         <v>1.32</v>
       </c>
       <c r="AG117" t="n">
-        <v>8.60153846153846</v>
+        <v>8.58666666666667</v>
       </c>
     </row>
     <row r="118">
@@ -12369,7 +12369,7 @@
         <v>1.28</v>
       </c>
       <c r="AG118" t="n">
-        <v>8.59538461538462</v>
+        <v>8.58222222222222</v>
       </c>
     </row>
     <row r="119">
@@ -12470,7 +12470,7 @@
         <v>1.3</v>
       </c>
       <c r="AG119" t="n">
-        <v>8.57538461538462</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="120">
@@ -12571,7 +12571,7 @@
         <v>3.14</v>
       </c>
       <c r="AG120" t="n">
-        <v>8.72153846153846</v>
+        <v>8.72666666666667</v>
       </c>
     </row>
     <row r="121">
@@ -12672,7 +12672,7 @@
         <v>3.2</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.74307692307692</v>
+        <v>8.73777777777778</v>
       </c>
     </row>
     <row r="122">
@@ -12773,7 +12773,7 @@
         <v>3.04</v>
       </c>
       <c r="AG122" t="n">
-        <v>8.69846153846154</v>
+        <v>8.68222222222222</v>
       </c>
     </row>
     <row r="123">
@@ -12874,7 +12874,7 @@
         <v>1.44</v>
       </c>
       <c r="AG123" t="n">
-        <v>8.48769230769231</v>
+        <v>8.46222222222222</v>
       </c>
     </row>
     <row r="124">
@@ -12975,7 +12975,7 @@
         <v>1.42</v>
       </c>
       <c r="AG124" t="n">
-        <v>8.63846153846154</v>
+        <v>8.62444444444444</v>
       </c>
     </row>
     <row r="125">
@@ -13076,7 +13076,7 @@
         <v>1.36</v>
       </c>
       <c r="AG125" t="n">
-        <v>8.57692307692308</v>
+        <v>8.56888888888889</v>
       </c>
     </row>
     <row r="126">
@@ -13177,7 +13177,7 @@
         <v>1.3</v>
       </c>
       <c r="AG126" t="n">
-        <v>8.53846153846154</v>
+        <v>8.46666666666667</v>
       </c>
     </row>
     <row r="127">
@@ -13278,7 +13278,7 @@
         <v>1.42</v>
       </c>
       <c r="AG127" t="n">
-        <v>8.47076923076923</v>
+        <v>8.50222222222222</v>
       </c>
     </row>
     <row r="128">
@@ -13379,7 +13379,7 @@
         <v>1.44</v>
       </c>
       <c r="AG128" t="n">
-        <v>8.58153846153846</v>
+        <v>8.50888888888889</v>
       </c>
     </row>
     <row r="129">
@@ -13480,7 +13480,7 @@
         <v>1.3</v>
       </c>
       <c r="AG129" t="n">
-        <v>8.44923076923077</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="130">
@@ -13581,7 +13581,7 @@
         <v>1.38</v>
       </c>
       <c r="AG130" t="n">
-        <v>8.48307692307692</v>
+        <v>8.45111111111111</v>
       </c>
     </row>
     <row r="131">
@@ -13682,7 +13682,7 @@
         <v>3.2</v>
       </c>
       <c r="AG131" t="n">
-        <v>8.52153846153846</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="132">
@@ -13783,7 +13783,7 @@
         <v>1.36</v>
       </c>
       <c r="AG132" t="n">
-        <v>8.50461538461538</v>
+        <v>8.49555555555555</v>
       </c>
     </row>
     <row r="133">
@@ -13884,7 +13884,7 @@
         <v>1.34</v>
       </c>
       <c r="AG133" t="n">
-        <v>8.50307692307692</v>
+        <v>8.47111111111111</v>
       </c>
     </row>
     <row r="134">
@@ -13985,7 +13985,7 @@
         <v>1.56</v>
       </c>
       <c r="AG134" t="n">
-        <v>8.39692307692308</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="135">
@@ -14086,7 +14086,7 @@
         <v>1.84</v>
       </c>
       <c r="AG135" t="n">
-        <v>8.40769230769231</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="136">
@@ -14187,7 +14187,7 @@
         <v>3.18</v>
       </c>
       <c r="AG136" t="n">
-        <v>8.59692307692308</v>
+        <v>8.60888888888889</v>
       </c>
     </row>
     <row r="137">
@@ -14288,7 +14288,7 @@
         <v>1.36</v>
       </c>
       <c r="AG137" t="n">
-        <v>8.49076923076923</v>
+        <v>8.44888888888889</v>
       </c>
     </row>
     <row r="138">
@@ -14389,7 +14389,7 @@
         <v>3.08</v>
       </c>
       <c r="AG138" t="n">
-        <v>8.42615384615385</v>
+        <v>8.41555555555556</v>
       </c>
     </row>
     <row r="139">
@@ -14490,7 +14490,7 @@
         <v>3.06</v>
       </c>
       <c r="AG139" t="n">
-        <v>8.42307692307692</v>
+        <v>8.42444444444444</v>
       </c>
     </row>
     <row r="140">
@@ -14591,7 +14591,7 @@
         <v>1.38</v>
       </c>
       <c r="AG140" t="n">
-        <v>8.44153846153846</v>
+        <v>8.45111111111111</v>
       </c>
     </row>
     <row r="141">
@@ -14692,7 +14692,7 @@
         <v>3.18</v>
       </c>
       <c r="AG141" t="n">
-        <v>8.46461538461539</v>
+        <v>8.42666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -14793,7 +14793,7 @@
         <v>3.32</v>
       </c>
       <c r="AG142" t="n">
-        <v>8.51384615384615</v>
+        <v>8.48666666666667</v>
       </c>
     </row>
     <row r="143">
@@ -14894,7 +14894,7 @@
         <v>1.46</v>
       </c>
       <c r="AG143" t="n">
-        <v>8.31076923076923</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="144">
@@ -14995,7 +14995,7 @@
         <v>2.98</v>
       </c>
       <c r="AG144" t="n">
-        <v>8.35384615384615</v>
+        <v>8.36666666666667</v>
       </c>
     </row>
     <row r="145">
@@ -15096,7 +15096,7 @@
         <v>2.92</v>
       </c>
       <c r="AG145" t="n">
-        <v>8.44615384615385</v>
+        <v>8.37333333333333</v>
       </c>
     </row>
     <row r="146">
@@ -15197,7 +15197,7 @@
         <v>1.42</v>
       </c>
       <c r="AG146" t="n">
-        <v>8.37846153846154</v>
+        <v>8.28888888888889</v>
       </c>
     </row>
     <row r="147">
@@ -15298,7 +15298,7 @@
         <v>1.4</v>
       </c>
       <c r="AG147" t="n">
-        <v>8.43692307692308</v>
+        <v>8.41555555555555</v>
       </c>
     </row>
     <row r="148">
@@ -15399,7 +15399,7 @@
         <v>3.32</v>
       </c>
       <c r="AG148" t="n">
-        <v>8.53384615384615</v>
+        <v>8.43555555555556</v>
       </c>
     </row>
     <row r="149">
@@ -15500,7 +15500,7 @@
         <v>3.28</v>
       </c>
       <c r="AG149" t="n">
-        <v>8.50615384615385</v>
+        <v>8.52222222222222</v>
       </c>
     </row>
     <row r="150">
@@ -15601,7 +15601,7 @@
         <v>1.6</v>
       </c>
       <c r="AG150" t="n">
-        <v>8.43384615384615</v>
+        <v>8.36222222222222</v>
       </c>
     </row>
     <row r="151">
@@ -15702,7 +15702,7 @@
         <v>1.46</v>
       </c>
       <c r="AG151" t="n">
-        <v>8.37846153846154</v>
+        <v>8.39555555555556</v>
       </c>
     </row>
     <row r="152">
@@ -15803,7 +15803,7 @@
         <v>3.26</v>
       </c>
       <c r="AG152" t="n">
-        <v>8.62769230769231</v>
+        <v>8.60888888888889</v>
       </c>
     </row>
     <row r="153">
@@ -15904,7 +15904,7 @@
         <v>3.26</v>
       </c>
       <c r="AG153" t="n">
-        <v>8.58153846153846</v>
+        <v>8.54222222222222</v>
       </c>
     </row>
     <row r="154">
@@ -16005,7 +16005,7 @@
         <v>1.5</v>
       </c>
       <c r="AG154" t="n">
-        <v>8.33538461538462</v>
+        <v>8.34444444444444</v>
       </c>
     </row>
     <row r="155">
@@ -16106,7 +16106,7 @@
         <v>1.48</v>
       </c>
       <c r="AG155" t="n">
-        <v>8.35538461538462</v>
+        <v>8.39777777777778</v>
       </c>
     </row>
     <row r="156">
@@ -16207,7 +16207,7 @@
         <v>1.5</v>
       </c>
       <c r="AG156" t="n">
-        <v>8.42153846153846</v>
+        <v>8.41555555555555</v>
       </c>
     </row>
     <row r="157">
@@ -16308,7 +16308,7 @@
         <v>1.32</v>
       </c>
       <c r="AG157" t="n">
-        <v>8.42461538461539</v>
+        <v>8.40666666666667</v>
       </c>
     </row>
     <row r="158">
@@ -16409,7 +16409,7 @@
         <v>3.26</v>
       </c>
       <c r="AG158" t="n">
-        <v>8.47076923076923</v>
+        <v>8.50888888888889</v>
       </c>
     </row>
     <row r="159">
@@ -16510,7 +16510,7 @@
         <v>3.04</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.49692307692308</v>
+        <v>8.51333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -16611,7 +16611,7 @@
         <v>1.44</v>
       </c>
       <c r="AG160" t="n">
-        <v>8.42307692307692</v>
+        <v>8.38666666666667</v>
       </c>
     </row>
     <row r="161">
@@ -16712,7 +16712,7 @@
         <v>1.38</v>
       </c>
       <c r="AG161" t="n">
-        <v>8.36307692307692</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="162">
@@ -16813,7 +16813,7 @@
         <v>3.38</v>
       </c>
       <c r="AG162" t="n">
-        <v>8.52</v>
+        <v>8.52222222222222</v>
       </c>
     </row>
     <row r="163">
@@ -16914,7 +16914,7 @@
         <v>3.4</v>
       </c>
       <c r="AG163" t="n">
-        <v>8.53384615384615</v>
+        <v>8.52666666666667</v>
       </c>
     </row>
     <row r="164">
@@ -17015,7 +17015,7 @@
         <v>1.3</v>
       </c>
       <c r="AG164" t="n">
-        <v>8.37692307692308</v>
+        <v>8.41555555555555</v>
       </c>
     </row>
     <row r="165">
@@ -17116,7 +17116,7 @@
         <v>1.36</v>
       </c>
       <c r="AG165" t="n">
-        <v>8.40923076923077</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="166">
@@ -17217,7 +17217,7 @@
         <v>1.36</v>
       </c>
       <c r="AG166" t="n">
-        <v>8.42153846153846</v>
+        <v>8.46888888888889</v>
       </c>
     </row>
     <row r="167">
@@ -17318,7 +17318,7 @@
         <v>1.82</v>
       </c>
       <c r="AG167" t="n">
-        <v>8.43692307692308</v>
+        <v>8.43555555555555</v>
       </c>
     </row>
     <row r="168">
@@ -17419,7 +17419,7 @@
         <v>3.42</v>
       </c>
       <c r="AG168" t="n">
-        <v>8.52461538461538</v>
+        <v>8.54888888888889</v>
       </c>
     </row>
     <row r="169">
@@ -17520,7 +17520,7 @@
         <v>3.3</v>
       </c>
       <c r="AG169" t="n">
-        <v>8.50923076923077</v>
+        <v>8.51333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -17621,7 +17621,7 @@
         <v>1.3</v>
       </c>
       <c r="AG170" t="n">
-        <v>8.43538461538462</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="171">
@@ -17722,7 +17722,7 @@
         <v>1.36</v>
       </c>
       <c r="AG171" t="n">
-        <v>8.44153846153846</v>
+        <v>8.38222222222222</v>
       </c>
     </row>
     <row r="172">
@@ -17823,7 +17823,7 @@
         <v>1.36</v>
       </c>
       <c r="AG172" t="n">
-        <v>8.42461538461539</v>
+        <v>8.40444444444445</v>
       </c>
     </row>
     <row r="173">
@@ -17924,7 +17924,7 @@
         <v>1.36</v>
       </c>
       <c r="AG173" t="n">
-        <v>8.47384615384615</v>
+        <v>8.52222222222222</v>
       </c>
     </row>
     <row r="174">
@@ -18025,7 +18025,7 @@
         <v>1.36</v>
       </c>
       <c r="AG174" t="n">
-        <v>8.45230769230769</v>
+        <v>8.44666666666667</v>
       </c>
     </row>
     <row r="175">
@@ -18126,7 +18126,7 @@
         <v>3.42</v>
       </c>
       <c r="AG175" t="n">
-        <v>8.58153846153846</v>
+        <v>8.56888888888889</v>
       </c>
     </row>
     <row r="176">
@@ -18227,7 +18227,7 @@
         <v>3.38</v>
       </c>
       <c r="AG176" t="n">
-        <v>8.57230769230769</v>
+        <v>8.54666666666667</v>
       </c>
     </row>
     <row r="177">
@@ -18328,7 +18328,7 @@
         <v>1.32</v>
       </c>
       <c r="AG177" t="n">
-        <v>8.56923076923077</v>
+        <v>8.64888888888889</v>
       </c>
     </row>
     <row r="178">
@@ -18429,7 +18429,7 @@
         <v>1.34</v>
       </c>
       <c r="AG178" t="n">
-        <v>8.51538461538462</v>
+        <v>8.55333333333333</v>
       </c>
     </row>
     <row r="179">
@@ -18530,7 +18530,7 @@
         <v>1.5</v>
       </c>
       <c r="AG179" t="n">
-        <v>8.42615384615384</v>
+        <v>8.39111111111111</v>
       </c>
     </row>
     <row r="180">
@@ -18631,7 +18631,7 @@
         <v>1.38</v>
       </c>
       <c r="AG180" t="n">
-        <v>8.48615384615385</v>
+        <v>8.47777777777778</v>
       </c>
     </row>
     <row r="181">
@@ -18732,7 +18732,7 @@
         <v>1.38</v>
       </c>
       <c r="AG181" t="n">
-        <v>8.44307692307692</v>
+        <v>8.41111111111111</v>
       </c>
     </row>
     <row r="182">
@@ -18833,7 +18833,7 @@
         <v>3.42</v>
       </c>
       <c r="AG182" t="n">
-        <v>8.57846153846154</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="183">
@@ -18934,7 +18934,7 @@
         <v>3.34</v>
       </c>
       <c r="AG183" t="n">
-        <v>8.48</v>
+        <v>8.48444444444445</v>
       </c>
     </row>
     <row r="184">
@@ -19035,7 +19035,7 @@
         <v>1.44</v>
       </c>
       <c r="AG184" t="n">
-        <v>8.45076923076923</v>
+        <v>8.42888888888889</v>
       </c>
     </row>
     <row r="185">
@@ -19136,7 +19136,7 @@
         <v>1.44</v>
       </c>
       <c r="AG185" t="n">
-        <v>8.44615384615385</v>
+        <v>8.45111111111111</v>
       </c>
     </row>
     <row r="186">
@@ -19237,7 +19237,7 @@
         <v>1.46</v>
       </c>
       <c r="AG186" t="n">
-        <v>8.44923076923077</v>
+        <v>8.45555555555556</v>
       </c>
     </row>
     <row r="187">
@@ -19338,7 +19338,7 @@
         <v>3.36</v>
       </c>
       <c r="AG187" t="n">
-        <v>8.53538461538461</v>
+        <v>8.53555555555555</v>
       </c>
     </row>
     <row r="188">
@@ -19439,7 +19439,7 @@
         <v>1.5</v>
       </c>
       <c r="AG188" t="n">
-        <v>8.55692307692308</v>
+        <v>8.60222222222222</v>
       </c>
     </row>
     <row r="189">
@@ -19540,7 +19540,7 @@
         <v>1.48</v>
       </c>
       <c r="AG189" t="n">
-        <v>8.45846153846154</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="190">
@@ -19641,7 +19641,7 @@
         <v>3.28</v>
       </c>
       <c r="AG190" t="n">
-        <v>8.55384615384615</v>
+        <v>8.58222222222222</v>
       </c>
     </row>
     <row r="191">
@@ -19742,7 +19742,7 @@
         <v>3.32</v>
       </c>
       <c r="AG191" t="n">
-        <v>8.50615384615385</v>
+        <v>8.51111111111111</v>
       </c>
     </row>
     <row r="192">
@@ -19843,7 +19843,7 @@
         <v>3.32</v>
       </c>
       <c r="AG192" t="n">
-        <v>8.53692307692308</v>
+        <v>8.51111111111111</v>
       </c>
     </row>
     <row r="193">
@@ -19944,7 +19944,7 @@
         <v>1.44</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.49538461538461</v>
+        <v>8.53777777777778</v>
       </c>
     </row>
     <row r="194">
@@ -20045,7 +20045,7 @@
         <v>1.38</v>
       </c>
       <c r="AG194" t="n">
-        <v>8.49076923076923</v>
+        <v>8.48666666666667</v>
       </c>
     </row>
     <row r="195">
@@ -20146,7 +20146,7 @@
         <v>3.3</v>
       </c>
       <c r="AG195" t="n">
-        <v>8.63692307692308</v>
+        <v>8.62444444444444</v>
       </c>
     </row>
     <row r="196">
@@ -20247,7 +20247,7 @@
         <v>3.38</v>
       </c>
       <c r="AG196" t="n">
-        <v>8.59076923076923</v>
+        <v>8.57333333333333</v>
       </c>
     </row>
     <row r="197">
@@ -20348,7 +20348,7 @@
         <v>1.46</v>
       </c>
       <c r="AG197" t="n">
-        <v>8.50307692307692</v>
+        <v>8.47333333333333</v>
       </c>
     </row>
     <row r="198">
@@ -20449,7 +20449,7 @@
         <v>3.36</v>
       </c>
       <c r="AG198" t="n">
-        <v>8.56</v>
+        <v>8.56222222222222</v>
       </c>
     </row>
     <row r="199">
@@ -20550,7 +20550,7 @@
         <v>1.62</v>
       </c>
       <c r="AG199" t="n">
-        <v>8.50153846153846</v>
+        <v>8.46222222222222</v>
       </c>
     </row>
     <row r="200">
@@ -20651,7 +20651,7 @@
         <v>1.62</v>
       </c>
       <c r="AG200" t="n">
-        <v>8.41230769230769</v>
+        <v>8.34444444444444</v>
       </c>
     </row>
     <row r="201">
@@ -20752,7 +20752,7 @@
         <v>1.62</v>
       </c>
       <c r="AG201" t="n">
-        <v>8.42153846153846</v>
+        <v>8.47333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/PH_forecasts.xlsx
+++ b/PH_forecasts.xlsx
@@ -653,7 +653,7 @@
         <v>1.48</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.49616861867698</v>
+        <v>8.49616861867697</v>
       </c>
     </row>
     <row r="3">
@@ -754,7 +754,7 @@
         <v>3.04</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.56419965411937</v>
+        <v>8.56419965411936</v>
       </c>
     </row>
     <row r="4">
@@ -956,7 +956,7 @@
         <v>1.48</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.60790810700557</v>
+        <v>8.60790810700558</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1158,7 @@
         <v>1.44</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.55441461485443</v>
+        <v>8.55441461485442</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1259,7 @@
         <v>3.02</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.49620031264027</v>
+        <v>8.49620031264026</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.50928521180398</v>
+        <v>8.50928521180397</v>
       </c>
     </row>
     <row r="10">
@@ -1562,7 +1562,7 @@
         <v>3.12</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.76273238353367</v>
+        <v>8.76273238353366</v>
       </c>
     </row>
     <row r="12">
@@ -1764,7 +1764,7 @@
         <v>1.42</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.62251776877967</v>
+        <v>8.62251776877966</v>
       </c>
     </row>
     <row r="14">
@@ -1865,7 +1865,7 @@
         <v>1.46</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.55688502909968</v>
+        <v>8.55688502909967</v>
       </c>
     </row>
     <row r="15">
@@ -1966,7 +1966,7 @@
         <v>1.44</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.53283153848794</v>
+        <v>8.53283153848793</v>
       </c>
     </row>
     <row r="16">
@@ -2067,7 +2067,7 @@
         <v>1.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.23893448419654</v>
+        <v>8.23893448419653</v>
       </c>
     </row>
     <row r="17">
@@ -2166,7 +2166,7 @@
         <v>1.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.43109304784827</v>
+        <v>8.43109304784826</v>
       </c>
     </row>
     <row r="18">
@@ -2368,7 +2368,7 @@
         <v>1.44</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.50081043572814</v>
+        <v>8.50081043572813</v>
       </c>
     </row>
     <row r="20">
@@ -2570,7 +2570,7 @@
         <v>1.46</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.6134576691491</v>
+        <v>8.61345766914909</v>
       </c>
     </row>
     <row r="22">
@@ -2772,7 +2772,7 @@
         <v>1.36</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.61517814457627</v>
+        <v>8.61517814457626</v>
       </c>
     </row>
     <row r="24">
@@ -2873,7 +2873,7 @@
         <v>3.18</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.56537780739968</v>
+        <v>8.56537780739967</v>
       </c>
     </row>
     <row r="25">
@@ -2974,7 +2974,7 @@
         <v>1.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.6965972797388</v>
+        <v>8.69659727973879</v>
       </c>
     </row>
     <row r="26">
@@ -3075,7 +3075,7 @@
         <v>1.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.66750845841863</v>
+        <v>8.66750845841862</v>
       </c>
     </row>
     <row r="27">
@@ -3176,7 +3176,7 @@
         <v>1.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.48737123813714</v>
+        <v>8.48737123813713</v>
       </c>
     </row>
     <row r="28">
@@ -3378,7 +3378,7 @@
         <v>3.28</v>
       </c>
       <c r="AG29" t="n">
-        <v>8.64579205721826</v>
+        <v>8.64579205721825</v>
       </c>
     </row>
     <row r="30">
@@ -3479,7 +3479,7 @@
         <v>3.24</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.676956283871</v>
+        <v>8.67695628387099</v>
       </c>
     </row>
     <row r="31">
@@ -3580,7 +3580,7 @@
         <v>3.26</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.72722977321333</v>
+        <v>8.72722977321332</v>
       </c>
     </row>
     <row r="32">
@@ -3681,7 +3681,7 @@
         <v>3.28</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.64513895974601</v>
+        <v>8.645138959746</v>
       </c>
     </row>
     <row r="33">
@@ -3782,7 +3782,7 @@
         <v>3.28</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.57476485172312</v>
+        <v>8.57476485172311</v>
       </c>
     </row>
     <row r="34">
@@ -3883,7 +3883,7 @@
         <v>1.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.61087099550792</v>
+        <v>8.61087099550791</v>
       </c>
     </row>
     <row r="35">
@@ -4085,7 +4085,7 @@
         <v>1.56</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.66161867343646</v>
+        <v>8.66161867343645</v>
       </c>
     </row>
     <row r="37">
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.4749049649177</v>
+        <v>8.47490496491769</v>
       </c>
     </row>
     <row r="38">
@@ -4287,7 +4287,7 @@
         <v>3.08</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.4245027534265</v>
+        <v>8.42450275342649</v>
       </c>
     </row>
     <row r="39">
@@ -4388,7 +4388,7 @@
         <v>3.06</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.44183870272358</v>
+        <v>8.44183870272357</v>
       </c>
     </row>
     <row r="40">
@@ -4792,7 +4792,7 @@
         <v>1.38</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.67821483461994</v>
+        <v>8.67821483461993</v>
       </c>
     </row>
     <row r="44">
@@ -4893,7 +4893,7 @@
         <v>1.34</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.60064594637534</v>
+        <v>8.60064594637533</v>
       </c>
     </row>
     <row r="45">
@@ -4994,7 +4994,7 @@
         <v>1.38</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.53067924168116</v>
+        <v>8.53067924168115</v>
       </c>
     </row>
     <row r="46">
@@ -5095,7 +5095,7 @@
         <v>1.42</v>
       </c>
       <c r="AG46" t="n">
-        <v>8.61757250967123</v>
+        <v>8.61757250967122</v>
       </c>
     </row>
     <row r="47">
@@ -5196,7 +5196,7 @@
         <v>3.28</v>
       </c>
       <c r="AG47" t="n">
-        <v>8.74257329489248</v>
+        <v>8.74257329489247</v>
       </c>
     </row>
     <row r="48">
@@ -5499,7 +5499,7 @@
         <v>3.1</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.63891431054052</v>
+        <v>8.63891431054051</v>
       </c>
     </row>
     <row r="51">
@@ -5600,7 +5600,7 @@
         <v>3.06</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.661041340629</v>
+        <v>8.66104134062899</v>
       </c>
     </row>
     <row r="52">
@@ -6307,7 +6307,7 @@
         <v>1.32</v>
       </c>
       <c r="AG58" t="n">
-        <v>8.47044841307298</v>
+        <v>8.47044841307297</v>
       </c>
     </row>
     <row r="59">
@@ -6408,7 +6408,7 @@
         <v>1.48</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.60657730469729</v>
+        <v>8.60657730469728</v>
       </c>
     </row>
     <row r="60">
@@ -6509,7 +6509,7 @@
         <v>1.38</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.52335490977044</v>
+        <v>8.52335490977043</v>
       </c>
     </row>
     <row r="61">
@@ -6610,7 +6610,7 @@
         <v>1.42</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.69876617088835</v>
+        <v>8.69876617088834</v>
       </c>
     </row>
     <row r="62">
@@ -6812,7 +6812,7 @@
         <v>1.44</v>
       </c>
       <c r="AG63" t="n">
-        <v>8.65355482781847</v>
+        <v>8.65355482781846</v>
       </c>
     </row>
     <row r="64">
@@ -7115,7 +7115,7 @@
         <v>1.54</v>
       </c>
       <c r="AG66" t="n">
-        <v>8.73255523646473</v>
+        <v>8.73255523646472</v>
       </c>
     </row>
     <row r="67">
@@ -7216,7 +7216,7 @@
         <v>1.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>8.64029698678656</v>
+        <v>8.64029698678655</v>
       </c>
     </row>
     <row r="68">
@@ -7317,7 +7317,7 @@
         <v>1.44</v>
       </c>
       <c r="AG68" t="n">
-        <v>8.60315019257231</v>
+        <v>8.6031501925723</v>
       </c>
     </row>
     <row r="69">
@@ -7721,7 +7721,7 @@
         <v>1.32</v>
       </c>
       <c r="AG72" t="n">
-        <v>8.39962121816934</v>
+        <v>8.39962121816933</v>
       </c>
     </row>
     <row r="73">
@@ -7822,7 +7822,7 @@
         <v>1.42</v>
       </c>
       <c r="AG73" t="n">
-        <v>8.53580348554536</v>
+        <v>8.53580348554535</v>
       </c>
     </row>
     <row r="74">
@@ -7923,7 +7923,7 @@
         <v>3.32</v>
       </c>
       <c r="AG74" t="n">
-        <v>8.60017381171257</v>
+        <v>8.60017381171256</v>
       </c>
     </row>
     <row r="75">
@@ -8024,7 +8024,7 @@
         <v>3.34</v>
       </c>
       <c r="AG75" t="n">
-        <v>8.57894248784737</v>
+        <v>8.57894248784736</v>
       </c>
     </row>
     <row r="76">
@@ -8125,7 +8125,7 @@
         <v>3.26</v>
       </c>
       <c r="AG76" t="n">
-        <v>8.50629860041239</v>
+        <v>8.50629860041238</v>
       </c>
     </row>
     <row r="77">
@@ -8226,7 +8226,7 @@
         <v>3.14</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.47785181145598</v>
+        <v>8.47785181145597</v>
       </c>
     </row>
     <row r="78">
@@ -8327,7 +8327,7 @@
         <v>3.36</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.49028053067406</v>
+        <v>8.49028053067405</v>
       </c>
     </row>
     <row r="79">
@@ -8428,7 +8428,7 @@
         <v>1.36</v>
       </c>
       <c r="AG79" t="n">
-        <v>8.68822947671984</v>
+        <v>8.68822947671983</v>
       </c>
     </row>
     <row r="80">
@@ -8529,7 +8529,7 @@
         <v>3.24</v>
       </c>
       <c r="AG80" t="n">
-        <v>8.6629615695202</v>
+        <v>8.66296156952019</v>
       </c>
     </row>
     <row r="81">
@@ -8731,7 +8731,7 @@
         <v>1.38</v>
       </c>
       <c r="AG82" t="n">
-        <v>8.75646542943854</v>
+        <v>8.75646542943853</v>
       </c>
     </row>
     <row r="83">
@@ -8832,7 +8832,7 @@
         <v>1.26</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.51445688367745</v>
+        <v>8.51445688367744</v>
       </c>
     </row>
     <row r="84">
@@ -9034,7 +9034,7 @@
         <v>1.32</v>
       </c>
       <c r="AG85" t="n">
-        <v>8.51582005395452</v>
+        <v>8.51582005395451</v>
       </c>
     </row>
     <row r="86">
@@ -9135,7 +9135,7 @@
         <v>1.44</v>
       </c>
       <c r="AG86" t="n">
-        <v>8.46739687115288</v>
+        <v>8.46739687115287</v>
       </c>
     </row>
     <row r="87">
@@ -9236,7 +9236,7 @@
         <v>1.42</v>
       </c>
       <c r="AG87" t="n">
-        <v>8.74867498907207</v>
+        <v>8.74867498907206</v>
       </c>
     </row>
     <row r="88">
@@ -9539,7 +9539,7 @@
         <v>2.86</v>
       </c>
       <c r="AG90" t="n">
-        <v>8.47589023165225</v>
+        <v>8.47589023165224</v>
       </c>
     </row>
     <row r="91">
@@ -9741,7 +9741,7 @@
         <v>2.84</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.63301171599718</v>
+        <v>8.63301171599717</v>
       </c>
     </row>
     <row r="93">
@@ -9943,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="AG94" t="n">
-        <v>8.45559707181284</v>
+        <v>8.45559707181283</v>
       </c>
     </row>
     <row r="95">
@@ -10044,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.53110017284363</v>
+        <v>8.53110017284362</v>
       </c>
     </row>
     <row r="96">
@@ -10145,7 +10145,7 @@
         <v>3.28</v>
       </c>
       <c r="AG96" t="n">
-        <v>8.60710123984199</v>
+        <v>8.607101239842</v>
       </c>
     </row>
     <row r="97">
@@ -10448,7 +10448,7 @@
         <v>1.44</v>
       </c>
       <c r="AG99" t="n">
-        <v>8.6832952375979</v>
+        <v>8.68329523759789</v>
       </c>
     </row>
     <row r="100">
@@ -10549,7 +10549,7 @@
         <v>3.04</v>
       </c>
       <c r="AG100" t="n">
-        <v>8.59943632638422</v>
+        <v>8.59943632638421</v>
       </c>
     </row>
     <row r="101">
@@ -10650,7 +10650,7 @@
         <v>3.04</v>
       </c>
       <c r="AG101" t="n">
-        <v>8.58936282703583</v>
+        <v>8.58936282703582</v>
       </c>
     </row>
     <row r="102">
@@ -10751,7 +10751,7 @@
         <v>3.24</v>
       </c>
       <c r="AG102" t="n">
-        <v>8.56513011821391</v>
+        <v>8.5651301182139</v>
       </c>
     </row>
     <row r="103">
@@ -10852,7 +10852,7 @@
         <v>3.1</v>
       </c>
       <c r="AG103" t="n">
-        <v>8.7394798411419</v>
+        <v>8.73947984114188</v>
       </c>
     </row>
     <row r="104">
@@ -11155,7 +11155,7 @@
         <v>1.42</v>
       </c>
       <c r="AG106" t="n">
-        <v>8.77292549420895</v>
+        <v>8.77292549420894</v>
       </c>
     </row>
     <row r="107">
@@ -11559,7 +11559,7 @@
         <v>1.38</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.578192600354</v>
+        <v>8.57819260035399</v>
       </c>
     </row>
     <row r="111">
@@ -11660,7 +11660,7 @@
         <v>1.5</v>
       </c>
       <c r="AG111" t="n">
-        <v>8.62651092008241</v>
+        <v>8.6265109200824</v>
       </c>
     </row>
     <row r="112">
@@ -11761,7 +11761,7 @@
         <v>1.34</v>
       </c>
       <c r="AG112" t="n">
-        <v>8.64088884963143</v>
+        <v>8.64088884963142</v>
       </c>
     </row>
     <row r="113">
@@ -11862,7 +11862,7 @@
         <v>1.34</v>
       </c>
       <c r="AG113" t="n">
-        <v>8.6685202406838</v>
+        <v>8.66852024068379</v>
       </c>
     </row>
     <row r="114">
@@ -11963,7 +11963,7 @@
         <v>3.08</v>
       </c>
       <c r="AG114" t="n">
-        <v>8.69185347372068</v>
+        <v>8.69185347372067</v>
       </c>
     </row>
     <row r="115">
@@ -12165,7 +12165,7 @@
         <v>1.26</v>
       </c>
       <c r="AG116" t="n">
-        <v>8.56392829917042</v>
+        <v>8.56392829917041</v>
       </c>
     </row>
     <row r="117">
@@ -12468,7 +12468,7 @@
         <v>3.16</v>
       </c>
       <c r="AG119" t="n">
-        <v>8.68288198721599</v>
+        <v>8.68288198721598</v>
       </c>
     </row>
     <row r="120">
@@ -12670,7 +12670,7 @@
         <v>1.44</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.64786412959062</v>
+        <v>8.64786412959061</v>
       </c>
     </row>
     <row r="122">
@@ -12771,7 +12771,7 @@
         <v>1.46</v>
       </c>
       <c r="AG122" t="n">
-        <v>8.67496953799546</v>
+        <v>8.67496953799545</v>
       </c>
     </row>
     <row r="123">
@@ -12872,7 +12872,7 @@
         <v>1.38</v>
       </c>
       <c r="AG123" t="n">
-        <v>8.64016097869423</v>
+        <v>8.64016097869422</v>
       </c>
     </row>
     <row r="124">
@@ -13074,7 +13074,7 @@
         <v>1.36</v>
       </c>
       <c r="AG125" t="n">
-        <v>8.55311906231528</v>
+        <v>8.55311906231529</v>
       </c>
     </row>
     <row r="126">
@@ -13678,7 +13678,7 @@
         <v>3.06</v>
       </c>
       <c r="AG131" t="n">
-        <v>8.58463591107726</v>
+        <v>8.58463591107725</v>
       </c>
     </row>
     <row r="132">
@@ -14688,7 +14688,7 @@
         <v>3.08</v>
       </c>
       <c r="AG141" t="n">
-        <v>8.43073043494721</v>
+        <v>8.4307304349472</v>
       </c>
     </row>
     <row r="142">
@@ -15597,7 +15597,7 @@
         <v>1.36</v>
       </c>
       <c r="AG150" t="n">
-        <v>8.44515252295575</v>
+        <v>8.44515252295574</v>
       </c>
     </row>
     <row r="151">
@@ -16203,7 +16203,7 @@
         <v>1.68</v>
       </c>
       <c r="AG156" t="n">
-        <v>8.49351928462793</v>
+        <v>8.49351928462794</v>
       </c>
     </row>
     <row r="157">
@@ -17213,7 +17213,7 @@
         <v>1.3</v>
       </c>
       <c r="AG166" t="n">
-        <v>8.59020318157029</v>
+        <v>8.5902031815703</v>
       </c>
     </row>
     <row r="167">
@@ -17514,7 +17514,7 @@
         <v>3.14</v>
       </c>
       <c r="AG169" t="n">
-        <v>8.66252807148464</v>
+        <v>8.66252807148465</v>
       </c>
     </row>
     <row r="170">
@@ -18019,7 +18019,7 @@
         <v>1.44</v>
       </c>
       <c r="AG174" t="n">
-        <v>8.36400762918133</v>
+        <v>8.36400762918134</v>
       </c>
     </row>
     <row r="175">
@@ -18120,7 +18120,7 @@
         <v>1.42</v>
       </c>
       <c r="AG175" t="n">
-        <v>8.49059664820723</v>
+        <v>8.49059664820722</v>
       </c>
     </row>
     <row r="176">
@@ -18726,7 +18726,7 @@
         <v>1.3</v>
       </c>
       <c r="AG181" t="n">
-        <v>8.48600151743945</v>
+        <v>8.48600151743946</v>
       </c>
     </row>
     <row r="182">
@@ -19130,7 +19130,7 @@
         <v>1.34</v>
       </c>
       <c r="AG185" t="n">
-        <v>8.48477771069127</v>
+        <v>8.48477771069128</v>
       </c>
     </row>
     <row r="186">
@@ -19433,7 +19433,7 @@
         <v>1.84</v>
       </c>
       <c r="AG188" t="n">
-        <v>8.35091198510712</v>
+        <v>8.35091198510711</v>
       </c>
     </row>
     <row r="189">
@@ -19534,7 +19534,7 @@
         <v>3.18</v>
       </c>
       <c r="AG189" t="n">
-        <v>8.60904036283384</v>
+        <v>8.60904036283385</v>
       </c>
     </row>
     <row r="190">
@@ -19938,7 +19938,7 @@
         <v>1.38</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.5483670585446</v>
+        <v>8.54836705854461</v>
       </c>
     </row>
     <row r="194">
@@ -21954,7 +21954,7 @@
         <v>1.48</v>
       </c>
       <c r="AG213" t="n">
-        <v>8.44831522757723</v>
+        <v>8.44831522757724</v>
       </c>
     </row>
     <row r="214">
@@ -22358,7 +22358,7 @@
         <v>3.04</v>
       </c>
       <c r="AG217" t="n">
-        <v>8.32362138062744</v>
+        <v>8.32362138062743</v>
       </c>
     </row>
     <row r="218">
@@ -22964,7 +22964,7 @@
         <v>1.36</v>
       </c>
       <c r="AG223" t="n">
-        <v>8.51546942971386</v>
+        <v>8.51546942971385</v>
       </c>
     </row>
     <row r="224">
@@ -23065,7 +23065,7 @@
         <v>1.36</v>
       </c>
       <c r="AG224" t="n">
-        <v>8.4336534143167</v>
+        <v>8.43365341431669</v>
       </c>
     </row>
     <row r="225">
@@ -23671,7 +23671,7 @@
         <v>1.36</v>
       </c>
       <c r="AG230" t="n">
-        <v>8.42048132627493</v>
+        <v>8.42048132627494</v>
       </c>
     </row>
     <row r="231">
@@ -24376,7 +24376,7 @@
         <v>1.62</v>
       </c>
       <c r="AG237" t="n">
-        <v>8.45089797921902</v>
+        <v>8.45089797921901</v>
       </c>
     </row>
     <row r="238">
@@ -25184,7 +25184,7 @@
         <v>3.34</v>
       </c>
       <c r="AG245" t="n">
-        <v>8.49449434873322</v>
+        <v>8.49449434873321</v>
       </c>
     </row>
     <row r="246">
@@ -25891,7 +25891,7 @@
         <v>1.44</v>
       </c>
       <c r="AG252" t="n">
-        <v>8.36851417562716</v>
+        <v>8.36851417562717</v>
       </c>
     </row>
     <row r="253">
@@ -27200,7 +27200,7 @@
         <v>3.36</v>
       </c>
       <c r="AG265" t="n">
-        <v>8.56257435549179</v>
+        <v>8.5625743554918</v>
       </c>
     </row>
     <row r="266">
